--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Lantaio\Documents\电脑技术\Develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lantaio\Projects\AutoHotkey\FinalD-Win\joy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="18600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alt+Space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优化排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -530,14 +526,6 @@
   </si>
   <si>
     <t>~ ～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(, （</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(, （</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -674,14 +662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>●, @, ©, ®, ™, ◆, ■, ○</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,10 +695,6 @@
   </si>
   <si>
     <t>单个/成对'切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -786,11 +762,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左Win+Alt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对切换</t>
+    <t>左Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对(切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>), ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？, ✔, ✘, ✓, ✗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！, ▲, △, ⚠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2136,16 +2136,16 @@
         <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
         <v>117</v>
       </c>
       <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
         <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2153,10 +2153,10 @@
         <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2198,13 +2198,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
@@ -2215,13 +2215,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
@@ -2235,10 +2235,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
@@ -2252,10 +2252,10 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>99</v>
@@ -2266,16 +2266,16 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2286,13 +2286,13 @@
         <v>44</v>
       </c>
       <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
         <v>134</v>
-      </c>
-      <c r="D10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2303,10 +2303,10 @@
         <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -2320,10 +2320,10 @@
         <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
@@ -2337,10 +2337,10 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D13" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E13" t="s">
         <v>92</v>
@@ -2371,10 +2371,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
@@ -2388,13 +2388,13 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2405,13 +2405,13 @@
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2422,13 +2422,13 @@
         <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2473,13 +2473,13 @@
         <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2490,13 +2490,13 @@
         <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2563,8 +2563,8 @@
       <c r="D26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>145</v>
+      <c r="E26" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2581,7 +2581,7 @@
         <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2595,10 +2595,10 @@
         <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2615,7 +2615,7 @@
         <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2632,7 +2632,7 @@
         <v>106</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2677,13 +2677,13 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
         <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="18600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="21000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="频率统计" sheetId="1" r:id="rId1"/>
+    <sheet name="漂移设计" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,237 +167,134 @@
   </si>
   <si>
     <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>～</t>
+  </si>
+  <si>
+    <t>. 。</t>
+  </si>
+  <si>
+    <t>, ，</t>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《, 〈, ≤, ≦, «, ‹, ⟨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》, 〉, ≥,  ≧, », ›, ⟩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★, %, °, ‰, ☆, ‱, ℅, ℆, ℀, ℁, ⅍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>：</t>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>\</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>～</t>
-  </si>
-  <si>
-    <t>^</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>. 。</t>
-  </si>
-  <si>
-    <t>, ，</t>
-  </si>
-  <si>
-    <t>; ；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* ×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>! ！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>? ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>| ｜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^ ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ ●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp; ※</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$ ￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\ 、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《, 〈, ≤, ≦, «, ‹, ⟨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》, 〉, ≥,  ≧, », ›, ⟩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★, %, °, ‰, ☆, ‱, ℅, ℆, ℀, ℁, ⅍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>% ★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># ◆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>%, ★, °, ‰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>; ；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -457,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>!, ！, ▲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>?, ？, ✔, ✘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,26 +374,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用频率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英/中切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快捷键：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优化排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单个"切换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -522,10 +399,6 @@
   </si>
   <si>
     <t>Rime标点候选菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~ ～</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -571,10 +444,6 @@
   </si>
   <si>
     <t>=, ≈, ≠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;, 《, 〈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,10 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{,「, 『, 〔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">「, 『, 〔, ｛ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,43 +551,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[, 【, 〖, ［</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单个/成对切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对'切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对"切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[, 【</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{,「</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英/中快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英/中快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;, 《</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -770,6 +599,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>单个/成对(切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>), ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？, ✔, ✘, ✓, ✗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！, ▲, △, ⚠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!, ！, ▲, ⚠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}, 」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}, 」, 』, 〕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>], 】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>], 】, 〗, ］</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,19 +659,271 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单个/成对(切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>), ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？, ✔, ✘, ✓, ✗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！, ▲, △, ⚠</t>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>｜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;, ；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*, ×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#, ◆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;, ※</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?, ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!, ！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\, 、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|, ｜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@, ●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%, ★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^, ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~, ～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$, ￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“,”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘,’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英/中快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对(快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对"快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;, 》, 〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;, 》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对'快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -939,9 +1072,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0">
   <autoFilter ref="A1:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="使用频率"/>
-    <tableColumn id="2" name="优化排序"/>
-    <tableColumn id="3" name="英/中切换"/>
+    <tableColumn id="1" name="英文时"/>
+    <tableColumn id="2" name="中文时"/>
+    <tableColumn id="3" name="英/中快切"/>
     <tableColumn id="4" name="标点轮换"/>
     <tableColumn id="5" name="Rime标点候选菜单"/>
   </tableColumns>
@@ -1215,14 +1348,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1358,7 +1492,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <f>19+65+166+136+27+323</f>
@@ -1412,7 +1546,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <f>50+21+196+157+267+85</f>
@@ -1520,7 +1654,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B12">
         <f>2+165+30+30+66+4</f>
@@ -1547,7 +1681,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="B13">
         <f>6+36+41</f>
@@ -1574,7 +1708,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <f>1+6+19</f>
@@ -2133,180 +2267,180 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -2314,393 +2448,393 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="C17" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>51</v>
+      <c r="A18" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>195</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
-        <v>102</v>
-      </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
       </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="21600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -278,10 +278,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★, %, °, ‰, ☆, ‱, ℅, ℆, ℀, ℁, ⅍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,47 +306,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>|, ｜, ·, §</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@, ●, ©, ®</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>^, ……, ⌘, ⌥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>……, ^, ⌘, ⌥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$, ￥, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, £</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,6 +416,370 @@
   </si>
   <si>
     <t>、, ＼, →, ←</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">「, 『, 〔, ｛ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【, 〖, 〘, ［</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>」, 』, 〕, ｝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>】, 〗, 〙, ］</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～, –, —</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~, ～, –, —</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右Shift</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对(切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>), ）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？, ✔, ✘, ✓, ✗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！, ▲, △, ⚠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!, ！, ▲, ⚠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}, 」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>], 】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>｜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;, ；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*, ×</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#, ◆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;, ※</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?, ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!, ！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\, 、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|, ｜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@, ●</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%, ★</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^, ……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~, ～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$, ￥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“,”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘,’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英/中快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对(快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对"快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;, 》, 〉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;, 》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对'快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个/成对快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>], 】, 〗, 〙, ］</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}, 」, 』, 〕, ｝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -531,35 +855,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>●, @, ©, ®, ™, ◆, ■, ○</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「, 『, 〔, ｛ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【, 〖, 〘, ［</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>」, 』, 〕, ｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>】, 〗, 〙, ］</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～, –, —</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~, ～, –, —</t>
+    <t>|, ｜, ·, §, ‖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@, ●, ©, ®, ™</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●, @, ©, ®, ○, ™, ◆, ■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★, %, °, ‰, ☆, ‱, ℅, ℆, ℀, ℁, ⅍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -591,339 +899,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>左Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对(切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>), ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？, ✔, ✘, ✓, ✗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！, ▲, △, ⚠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!, ！, ▲, ⚠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}, 」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}, 」, 』, 〕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>], 】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>], 】, 〗, ］</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>｜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;, ；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*, ×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#, ◆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;, ※</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?, ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!, ！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\, 、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|, ｜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@, ●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%, ★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^, ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~, ～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$, ￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“,”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘,’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英/中快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对(快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对"快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;, 》, 〉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;, 》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对'快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
+    <r>
+      <t xml:space="preserve">$, ￥, ＄, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>€</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, £</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -931,7 +931,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,6 +960,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2267,35 +2275,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -2312,10 +2320,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -2329,16 +2337,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>60</v>
@@ -2346,16 +2354,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>61</v>
@@ -2363,16 +2371,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>62</v>
@@ -2380,67 +2388,67 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -2448,16 +2456,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -2465,16 +2473,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
@@ -2482,16 +2490,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -2499,16 +2507,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>63</v>
@@ -2516,143 +2524,143 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" t="s">
         <v>186</v>
       </c>
-      <c r="C18" t="s">
-        <v>195</v>
-      </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>46</v>
@@ -2669,36 +2677,36 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" t="s">
         <v>73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>176</v>
-      </c>
       <c r="D26" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2706,135 +2714,135 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
         <v>168</v>
       </c>
-      <c r="C27" t="s">
-        <v>177</v>
-      </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="21600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="22200" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="198">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,9 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>。</t>
-  </si>
-  <si>
     <t>，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>；</t>
-  </si>
-  <si>
-    <t>；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -217,15 +211,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>～</t>
-  </si>
-  <si>
-    <t>. 。</t>
-  </si>
-  <si>
-    <t>, ，</t>
-  </si>
-  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,22 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>——</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,18 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>《, 〈, ≤, ≦, «, ‹, ⟨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》, 〉, ≥,  ≧, », ›, ⟩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,74 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%, ★, °, ‰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*, ×, ＊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;, ※, ℃, ℉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>※, &amp;, ℃, ℉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^, ……, ⌘, ⌥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……, ^, ⌘, ⌥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?, ？, ✔, ✘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`, 々</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`, 々, 〃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#, ◆, ■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷键：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个"切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个'切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘, ’ 轮换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“, ” 轮换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标点轮换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,19 +255,1105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>_, ——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_, ——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:, ：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/, ÷</t>
+    <t>英文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>|</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英/中快切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快捷键：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>右</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Shift</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对快切</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对切换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>÷</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,415 +1364,1833 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ≈</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/, ÷, ／</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>÷, ／</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=, ≈, ≠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-, ↔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\, 、, →, ←</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>、, ＼, →, ←</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">「, 『, 〔, ｛ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【, 〖, 〘, ［</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>」, 』, 〕, ｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>】, 〗, 〙, ］</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>～, –, —</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~, ～, –, —</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右Shift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对(切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>), ）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？, ✔, ✘, ✓, ✗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！, ▲, △, ⚠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!, ！, ▲, ⚠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}, 」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>], 】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中文时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>「</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>｜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;, ；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*, ×</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#, ◆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;, ※</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?, ？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!, ！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\, 、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|, ｜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@, ●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%, ★</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^, ……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~, ～</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$, ￥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“,”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘,’</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英/中快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对(快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对"快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;, 》, 〉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;, 》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对'快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个/成对快切</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>], 】, 〗, 〙, ］</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}, 」, 』, 〕, ｝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">｜, ·, §, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔↔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/,÷,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>=,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&gt;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>},</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*,×,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,〙,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>］</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>`,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,✘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,⚠</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,·,§,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,©,®,™</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,°,‰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^,……,⌘,⌥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,–,—</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,€,£</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“,”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘,’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“,” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>÷,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,«,‹,⟨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,»,›,⟩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>『</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘,’ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,〘,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>［</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,〙,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>］</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,✘,✓,✗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,⚠</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,·,§,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
         <family val="3"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>・</t>
     </r>
@@ -801,21 +3198,18 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>‖</t>
     </r>
@@ -823,21 +3217,18 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>↕</t>
     </r>
@@ -845,84 +3236,236 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ↑, ↓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>|, ｜, ·, §, ‖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@, ●, ©, ®, ™</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>●, @, ©, ®, ○, ™, ◆, ■</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>★, %, °, ‰, ☆, ‱, ℅, ℆, ℀, ℁, ⅍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">￥, $, ＄, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, £, ¥, ¢, ¤, ₩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$, ￥, ＄, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, £</t>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,@,©,®,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,™,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,%,°,‰,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,‱,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,℆,℀,℁,⅍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……,^,⌘,⌥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,–,—</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,$,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,€,£,¥,¢,¤,₩</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -931,7 +3474,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,26 +3493,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Malgun Gothic Semilight"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1018,27 +3571,111 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1068,7 +3705,7 @@
     <tableColumn id="3" name="Java"/>
     <tableColumn id="4" name="Python" totalsRowFunction="sum"/>
     <tableColumn id="5" name="Rust"/>
-    <tableColumn id="6" name="汇总" dataDxfId="0">
+    <tableColumn id="6" name="汇总" dataDxfId="6">
       <calculatedColumnFormula>SUM(表1[[#This Row],[Markdown]:[Rust]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1077,14 +3714,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="英文时"/>
-    <tableColumn id="2" name="中文时"/>
-    <tableColumn id="3" name="英/中快切"/>
-    <tableColumn id="4" name="标点轮换"/>
-    <tableColumn id="5" name="Rime标点候选菜单"/>
+    <tableColumn id="1" name="英文时" dataDxfId="5"/>
+    <tableColumn id="2" name="中文时" dataDxfId="4"/>
+    <tableColumn id="3" name="英/中快切" dataDxfId="3"/>
+    <tableColumn id="4" name="标点轮换" dataDxfId="2"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,7 +4137,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <f>19+65+166+136+27+323</f>
@@ -1554,7 +4191,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <f>50+21+196+157+267+85</f>
@@ -1662,7 +4299,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <f>2+165+30+30+66+4</f>
@@ -1689,7 +4326,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <f>6+36+41</f>
@@ -1716,7 +4353,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <f>1+6+19</f>
@@ -2269,580 +4906,582 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="3" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
-      <c r="D14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" t="s">
-        <v>185</v>
-      </c>
-      <c r="D16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>138</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" t="s">
-        <v>173</v>
-      </c>
-      <c r="D32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>147</v>
-      </c>
-      <c r="B34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" t="s">
-        <v>195</v>
+      <c r="E34" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22200" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="22800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
-    <sheet name="漂移设计" sheetId="3" r:id="rId2"/>
+    <sheet name="漂移方案" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1926,6 +1926,1173 @@
   </si>
   <si>
     <r>
+      <t>*,×,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>`,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&amp;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,✘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,⚠</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>\,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>|,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,·,§,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,©,®,™</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>%,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,°,‰</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^,……,⌘,⌥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>~,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,–,—</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,€,£</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“,”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‘,’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">“,” </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>÷,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,«,‹,⟨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>》</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,»,›,⟩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">‘,’ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>轮换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,&amp;,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,✘,✓,✗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,⚠</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,·,§,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,@,©,®,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,™,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,%,°,‰,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,‱,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,℆,℀,℁,⅍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……,^,⌘,⌥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,–,—</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>￥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,$,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,€,£,¥,¢,¤,₩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>},</t>
     </r>
     <r>
@@ -1964,6 +3131,15 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
+      <t>,〙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
       <t>,</t>
     </r>
     <r>
@@ -1974,6 +3150,60 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>｝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>〕</t>
     </r>
     <r>
@@ -1993,39 +3223,210 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>］</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>［</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>『</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,〘,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,〙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t>｝</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>*,×,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
     </r>
     <r>
       <rPr>
@@ -2044,23 +3445,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>■</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
+      <t>〗</t>
     </r>
     <r>
       <rPr>
@@ -2079,16 +3464,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,〙,</t>
+      <t>〕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -2099,1373 +3484,6 @@
         <charset val="134"/>
       </rPr>
       <t>］</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>`,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&amp;,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,✔,✘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>!,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>▲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,⚠</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>\,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>|,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,·,§,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‖</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>@,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,©,®,™</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>%,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,°,‰</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^,……,⌘,⌥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>~,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,–,—</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>$,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>￥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,€,£</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>“,”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‘,’</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">“,” </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>÷,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>／</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>《</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,«,‹,⟨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>》</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,»,›,⟩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>『</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">‘,’ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>轮换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,〘,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>［</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,〙,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>］</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,&amp;,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,✔,✘,✓,✗</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>▲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>△</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,⚠</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,·,§,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>・</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,@,©,®,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,™,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,%,°,‰,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,‱,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,℆,℀,℁,⅍</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……,^,⌘,⌥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,–,—</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>￥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,$,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,€,£,¥,¢,¤,₩</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3714,14 +3732,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="英文时" dataDxfId="5"/>
-    <tableColumn id="2" name="中文时" dataDxfId="4"/>
-    <tableColumn id="3" name="英/中快切" dataDxfId="3"/>
-    <tableColumn id="4" name="标点轮换" dataDxfId="2"/>
-    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="1"/>
+    <tableColumn id="1" name="英文时" dataDxfId="4"/>
+    <tableColumn id="2" name="中文时" dataDxfId="3"/>
+    <tableColumn id="3" name="英/中快切" dataDxfId="2"/>
+    <tableColumn id="4" name="标点轮换" dataDxfId="1"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3993,7 +4011,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -5047,7 +5065,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>124</v>
@@ -5056,7 +5074,7 @@
         <v>125</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5073,7 +5091,7 @@
         <v>159</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5107,7 +5125,7 @@
         <v>127</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5124,7 +5142,7 @@
         <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5175,7 +5193,7 @@
         <v>129</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5189,10 +5207,10 @@
         <v>144</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5200,7 +5218,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>130</v>
@@ -5209,7 +5227,7 @@
         <v>131</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5223,7 +5241,7 @@
         <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>55</v>
@@ -5240,7 +5258,7 @@
         <v>146</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>56</v>
@@ -5260,7 +5278,7 @@
         <v>133</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5274,10 +5292,10 @@
         <v>147</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5291,7 +5309,7 @@
         <v>148</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>57</v>
@@ -5325,10 +5343,10 @@
         <v>149</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5342,10 +5360,10 @@
         <v>150</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5359,10 +5377,10 @@
         <v>151</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5376,10 +5394,10 @@
         <v>152</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5393,10 +5411,10 @@
         <v>153</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5410,10 +5428,10 @@
         <v>154</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5427,10 +5445,10 @@
         <v>155</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5444,10 +5462,10 @@
         <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5461,10 +5479,10 @@
         <v>157</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5478,10 +5496,10 @@
         <v>158</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="22800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="23400" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3485,6 +3485,10 @@
       </rPr>
       <t>］</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括数字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3589,7 +3593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3609,6 +3613,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4946,7 +4953,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>108</v>
       </c>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lantaio\Projects\AutoHotkey\FinalD-Win\joy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lantaio\Projects\AutoHotkey\FinalD\joy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="24600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -3337,7 +3337,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3387,6 +3387,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3434,7 +3450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3459,11 +3475,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3571,7 +3606,7 @@
     <tableColumn id="3" name="Java"/>
     <tableColumn id="4" name="Python" totalsRowFunction="sum"/>
     <tableColumn id="5" name="Rust"/>
-    <tableColumn id="6" name="汇总" dataDxfId="6">
+    <tableColumn id="6" name="汇总" dataDxfId="7">
       <calculatedColumnFormula>SUM(表1[[#This Row],[Markdown]:[Rust]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3580,14 +3615,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <autoFilter ref="A1:E34"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="英文时" dataDxfId="4"/>
-    <tableColumn id="2" name="中文时" dataDxfId="3"/>
-    <tableColumn id="3" name="英/中标点变换" dataDxfId="2"/>
-    <tableColumn id="4" name="常见标点轮换" dataDxfId="1"/>
-    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="0"/>
+    <tableColumn id="1" name="英文时" dataDxfId="6"/>
+    <tableColumn id="2" name="中文时" dataDxfId="5"/>
+    <tableColumn id="3" name="英/中标点变换" dataDxfId="4"/>
+    <tableColumn id="4" name="常见标点轮换" dataDxfId="3"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4777,19 +4812,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>58</v>
       </c>
     </row>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="25200" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -3494,19 +3494,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <name val="等线"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
@@ -3575,6 +3562,19 @@
         <color theme="1"/>
         <name val="Consolas"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <name val="等线"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -3615,14 +3615,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:E34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="英文时" dataDxfId="6"/>
-    <tableColumn id="2" name="中文时" dataDxfId="5"/>
-    <tableColumn id="3" name="英/中标点变换" dataDxfId="4"/>
-    <tableColumn id="4" name="常见标点轮换" dataDxfId="3"/>
-    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="2"/>
+    <tableColumn id="1" name="英文时" dataDxfId="4"/>
+    <tableColumn id="2" name="中文时" dataDxfId="3"/>
+    <tableColumn id="3" name="英/中标点变换" dataDxfId="2"/>
+    <tableColumn id="4" name="常见标点轮换" dataDxfId="1"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="27600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="28200" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="202">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3321,79 +3321,6 @@
         <charset val="134"/>
       </rPr>
       <t>变换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>`,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>㏒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>㏑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4318,13 +4245,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <tableColumns count="5">
-    <tableColumn id="1" name="英文时" dataDxfId="5"/>
-    <tableColumn id="2" name="中文时" dataDxfId="4"/>
-    <tableColumn id="3" name="英/中标点变换" dataDxfId="3"/>
-    <tableColumn id="4" name="常见标点轮换" dataDxfId="2"/>
-    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="1"/>
+    <tableColumn id="1" name="英文时" dataDxfId="4"/>
+    <tableColumn id="2" name="中文时" dataDxfId="3"/>
+    <tableColumn id="3" name="英/中标点变换" dataDxfId="2"/>
+    <tableColumn id="4" name="常见标点轮换" dataDxfId="1"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4596,7 +4523,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -5791,7 +5718,7 @@
         <v>183</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>156</v>
@@ -5896,10 +5823,10 @@
         <v>110</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>187</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5913,7 +5840,7 @@
         <v>160</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>51</v>
@@ -5933,7 +5860,7 @@
         <v>161</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5950,7 +5877,7 @@
         <v>162</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5961,13 +5888,13 @@
         <v>146</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -5978,13 +5905,13 @@
         <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6046,7 +5973,7 @@
         <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>115</v>
@@ -6066,10 +5993,10 @@
         <v>131</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -6083,10 +6010,10 @@
         <v>129</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="31200" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="频率统计" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="198">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4936,11 +4936,284 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右</t>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,❌,✘,⭕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（全角时）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,❌,✘,⭕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,✔,❌,✘,⭕</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞（全角时）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左</t>
     </r>
     <r>
       <rPr>
@@ -4964,340 +5237,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ctrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Ctrl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>键</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,✔,❌,✘,⭕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（全角时）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,✔,❌,✘,⭕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,✔,❌,✘,⭕</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞（全角时）</t>
-    </r>
+    <t>右Shift键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6813,13 +6753,13 @@
         <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7102,13 +7042,13 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -7221,13 +7161,13 @@
         <v>159</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="49800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="51000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="频率统计" sheetId="1" r:id="rId1"/>
-    <sheet name="漂移方案" sheetId="3" r:id="rId2"/>
+    <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
+    <sheet name="标点漂移方案" sheetId="3" r:id="rId2"/>
+    <sheet name="数字漂移方案" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="215">
   <si>
     <t>标点符号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7791,6 +7792,84 @@
   </si>
   <si>
     <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,²</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左Shift键轮换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右Shift键轮换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,➁,➋</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8056,7 +8135,92 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -8177,7 +8341,7 @@
     <tableColumn id="3" name="Java"/>
     <tableColumn id="4" name="Python" totalsRowFunction="sum"/>
     <tableColumn id="5" name="Rust"/>
-    <tableColumn id="6" name="汇总" dataDxfId="7">
+    <tableColumn id="6" name="汇总" dataDxfId="12">
       <calculatedColumnFormula>SUM(表1[[#This Row],[Markdown]:[Rust]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8186,15 +8350,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:E34" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="5">
-    <tableColumn id="1" name="英文、数字" dataDxfId="4"/>
-    <tableColumn id="2" name="中文" dataDxfId="3"/>
-    <tableColumn id="4" name="英/中标点轮换" dataDxfId="2"/>
-    <tableColumn id="3" name="中/英标点切换" dataDxfId="1"/>
-    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="0"/>
+    <tableColumn id="1" name="英文、数字" dataDxfId="9"/>
+    <tableColumn id="2" name="中文" dataDxfId="8"/>
+    <tableColumn id="4" name="英/中标点轮换" dataDxfId="7"/>
+    <tableColumn id="3" name="中/英标点切换" dataDxfId="6"/>
+    <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="数字时" dataDxfId="2"/>
+    <tableColumn id="2" name="左Shift键轮换" dataDxfId="1"/>
+    <tableColumn id="3" name="右Shift键轮换" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -10032,4 +10208,46 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="51000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="51600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -8364,13 +8364,12 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C2"/>
   <tableColumns count="3">
     <tableColumn id="1" name="数字时" dataDxfId="2"/>
     <tableColumn id="2" name="左Shift键轮换" dataDxfId="1"/>
     <tableColumn id="3" name="右Shift键轮换" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -10218,7 +10217,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="51600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="52800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -5187,46 +5187,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>标点切换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Rime</t>
     </r>
     <r>
@@ -5428,83 +5388,64 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>′</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>′</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
+      <t>÷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
     </r>
     <r>
       <rPr>
@@ -5523,13 +5464,108 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>`</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>÷</t>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
     </r>
     <r>
       <rPr>
@@ -5548,45 +5584,25 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✱</t>
     </r>
     <r>
       <rPr>
@@ -5605,99 +5621,507 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>©</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>™</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>№</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>↩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5745,6 +6169,1603 @@
       </rPr>
       <t>✱</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时列表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>❌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⭕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⚠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>』</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>［</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>『</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🙂️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🙂️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则：好记，归类；高频在前；高频键位舒适；高频Rime半角可见；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🙂️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>😄️</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左Shift键轮换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右Shift键轮换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标点变换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>‴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>‴</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5762,2113 +7783,207 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
+      <t>`</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>‴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ⅱ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>➁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Malgun Gothic Semilight"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>©</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>™</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>№</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>^</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>……</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>↩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✱</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>❌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⭕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>▲</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⚠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>△</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>′</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>』</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>［</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>］</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>『</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🙂️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🙂️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原则：好记，归类；高频在前；高频键位舒适；高频Rime半角可见；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>🙂️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>😄️</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如：2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>₂</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,²</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左Shift键轮换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右Shift键轮换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数字时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ⅱ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,➁,➋</t>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>➋</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8073,7 +8188,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8125,6 +8240,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8149,7 +8270,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="微软雅黑"/>
+        <name val="Consolas"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -8355,7 +8476,7 @@
     <tableColumn id="1" name="英文、数字" dataDxfId="9"/>
     <tableColumn id="2" name="中文" dataDxfId="8"/>
     <tableColumn id="4" name="英/中标点轮换" dataDxfId="7"/>
-    <tableColumn id="3" name="中/英标点切换" dataDxfId="6"/>
+    <tableColumn id="3" name="中/英标点变换" dataDxfId="6"/>
     <tableColumn id="5" name="Rime标点候选菜单" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8366,8 +8487,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:C2" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" name="数字时" dataDxfId="2"/>
-    <tableColumn id="2" name="左Shift键轮换" dataDxfId="1"/>
-    <tableColumn id="3" name="右Shift键轮换" dataDxfId="0"/>
+    <tableColumn id="2" name="左Shift键轮换" dataDxfId="0"/>
+    <tableColumn id="3" name="右Shift键轮换" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9571,10 +9692,10 @@
         <v>160</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>161</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9603,10 +9724,10 @@
         <v>131</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9617,21 +9738,21 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>87</v>
@@ -9643,15 +9764,15 @@
         <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>86</v>
@@ -9663,7 +9784,7 @@
         <v>130</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9680,7 +9801,7 @@
         <v>158</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9697,10 +9818,10 @@
         <v>132</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9731,13 +9852,13 @@
         <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9754,7 +9875,7 @@
         <v>133</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9774,7 +9895,7 @@
         <v>117</v>
       </c>
       <c r="F12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9794,7 +9915,7 @@
         <v>118</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9811,10 +9932,10 @@
         <v>135</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9831,12 +9952,12 @@
         <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>92</v>
@@ -9848,7 +9969,7 @@
         <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9865,7 +9986,7 @@
         <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9893,16 +10014,16 @@
         <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9913,16 +10034,16 @@
         <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9930,7 +10051,7 @@
         <v>58</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>74</v>
@@ -9939,7 +10060,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9956,7 +10077,7 @@
         <v>139</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -9967,13 +10088,13 @@
         <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="F23" t="s">
         <v>84</v>
@@ -9993,7 +10114,7 @@
         <v>140</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10010,10 +10131,10 @@
         <v>141</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10030,10 +10151,10 @@
         <v>142</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10050,7 +10171,7 @@
         <v>143</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10078,10 +10199,10 @@
         <v>128</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>129</v>
@@ -10101,10 +10222,10 @@
         <v>145</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10124,7 +10245,7 @@
         <v>114</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10141,10 +10262,10 @@
         <v>155</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10184,17 +10305,17 @@
         <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10223,29 +10344,30 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>214</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="56400" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="57000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -7527,11 +7527,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>……</t>
     </r>
     <r>
       <rPr>
@@ -7546,12 +7546,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
     </r>
     <r>
       <rPr>
@@ -7567,34 +7566,86 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>↩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7603,6 +7654,96 @@
         <family val="3"/>
       </rPr>
       <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>↩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
     </r>
     <r>
       <rPr>
@@ -7621,7 +7762,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>^</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -7636,65 +7777,58 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>↩</t>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7706,7 +7840,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>^</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -7720,11 +7854,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>……</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
     </r>
     <r>
       <rPr>
@@ -7739,82 +7873,326 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>↩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
     </r>
     <r>
       <rPr>
@@ -7833,7 +8211,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>=</t>
+      <t>~</t>
     </r>
     <r>
       <rPr>
@@ -7848,62 +8226,74 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7911,25 +8301,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≈</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -7939,359 +8311,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>←</t>
     </r>
     <r>
@@ -8302,45 +8321,26 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
+      <t>∩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∪</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10074,7 +10074,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>102</v>
@@ -10189,7 +10189,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>205</v>
@@ -10265,13 +10265,13 @@
         <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11"/>
     </row>
@@ -10663,10 +10663,10 @@
         <v>101</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>174</v>
@@ -10683,13 +10683,13 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60000" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60600" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -8027,10 +8027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和、累积之意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和↑、↓等在同一个按键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8471,6 +8467,10 @@
   </si>
   <si>
     <t>助记说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和、累积之意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10204,7 +10204,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -10233,7 +10233,7 @@
         <v>134</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>102</v>
@@ -10290,7 +10290,7 @@
         <v>185</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>186</v>
@@ -10357,7 +10357,7 @@
         <v>197</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>187</v>
@@ -10378,7 +10378,7 @@
         <v>138</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>109</v>
@@ -10419,7 +10419,7 @@
         <v>188</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>168</v>
@@ -10436,16 +10436,16 @@
         <v>217</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>218</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G11"/>
     </row>
@@ -10460,10 +10460,10 @@
         <v>68</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>228</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>229</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>93</v>
@@ -10509,7 +10509,7 @@
         <v>173</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>174</v>
@@ -10529,10 +10529,10 @@
         <v>189</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>190</v>
@@ -10553,7 +10553,7 @@
         <v>68</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>115</v>
@@ -10574,7 +10574,7 @@
         <v>148</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>113</v>
@@ -10659,7 +10659,7 @@
         <v>68</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>199</v>
@@ -10680,7 +10680,7 @@
         <v>165</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>114</v>
@@ -10724,7 +10724,7 @@
         <v>150</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>151</v>
@@ -10768,7 +10768,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>111</v>
@@ -10791,7 +10791,7 @@
         <v>159</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>112</v>
@@ -10812,7 +10812,7 @@
         <v>193</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>98</v>
@@ -10877,7 +10877,7 @@
         <v>211</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>210</v>
@@ -10900,7 +10900,7 @@
         <v>180</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>161</v>
@@ -10946,7 +10946,7 @@
         <v>164</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>163</v>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="62400" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="64800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -1213,105 +1213,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="新宋体"/>
         <family val="3"/>
@@ -4152,11 +4053,177 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
     </r>
     <r>
       <rPr>
@@ -4171,11 +4238,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>*</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
     </r>
     <r>
       <rPr>
@@ -4193,16 +4261,1253 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+      <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>☒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>↩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⌥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>↩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℉</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⊂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>÷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
     </r>
     <r>
       <rPr>
@@ -4212,29 +5517,69 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>／</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>√</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4242,25 +5587,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -4270,16 +5597,670 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>－</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>→</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¦</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>——</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〖</t>
     </r>
     <r>
       <rPr>
@@ -4298,106 +6279,29 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>×</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
+      <t>［</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则：好记，归类；高频在前；高频键位舒适；高频Rime半角可见。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4408,7 +6312,222 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>;</t>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>©</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>™</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>№</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>©</t>
     </r>
     <r>
       <rPr>
@@ -4423,12 +6542,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@</t>
     </r>
     <r>
       <rPr>
@@ -4443,44 +6561,68 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☒</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>™</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4492,7 +6634,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>;</t>
+      <t>@</t>
     </r>
     <r>
       <rPr>
@@ -4506,12 +6648,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>©</t>
     </r>
     <r>
       <rPr>
@@ -4526,130 +6668,75 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☒</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>☒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>|</t>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>●</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>®</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>™</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>○</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>‰</t>
     </r>
     <r>
       <rPr>
@@ -4664,12 +6751,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -4684,69 +6770,48 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‖</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✪</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4758,7 +6823,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>|</t>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -4772,12 +6837,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜</t>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>‰</t>
     </r>
     <r>
       <rPr>
@@ -4792,70 +6856,89 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‖</t>
-    </r>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都有小圆圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思或形状相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意思或形状相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和↑、↓等在同一个按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五角星放在数字5按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都有斜杠或开除之意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都有警告之意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4866,94 +6949,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -4967,12 +6963,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¬</t>
     </r>
     <r>
       <rPr>
@@ -4987,61 +6982,311 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>……</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∧</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>单个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成对变换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形状相近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^是Ctrl，键盘符号一类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的答案是✔还是❌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和苹果键盘布局一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键在？旁，同是✔❌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>，号前后“属于”同一句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和-号的∨∧在同一按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-即非，∨∧同属逻辑符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助记说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和、累积之意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>‰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>✪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都是小点点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小写希腊文同一按键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
     </r>
     <r>
       <rPr>
@@ -5060,7 +7305,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>^</t>
+      <t>=</t>
     </r>
     <r>
       <rPr>
@@ -5075,65 +7320,180 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>↩</t>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>⇒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>⇔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5145,7 +7505,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>^</t>
+      <t>+</t>
     </r>
     <r>
       <rPr>
@@ -5159,11 +7519,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>……</t>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>±</t>
     </r>
     <r>
       <rPr>
@@ -5179,68 +7539,140 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⌥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>↩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文  数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5248,26 +7680,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。</t>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -5277,67 +7690,65 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℉</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>∏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
     </r>
     <r>
       <rPr>
@@ -5352,12 +7763,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
     </r>
     <r>
       <rPr>
@@ -5372,60 +7782,55 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>］</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5433,26 +7838,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
+      <t>#</t>
     </r>
     <r>
       <rPr>
@@ -5462,52 +7848,262 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊂</t>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>＃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>■</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>◇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Φ</t>
     </r>
     <r>
       <rPr>
@@ -5524,139 +8120,226 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>π</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>々</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>″</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>‴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全角时</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⊂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>↔</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5664,25 +8347,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>÷</t>
+      <t>~</t>
     </r>
     <r>
       <rPr>
@@ -5692,68 +8357,373 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>→</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Φ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>π</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
         <rFont val="新宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>／</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>√</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¬</t>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>π</t>
     </r>
     <r>
       <rPr>
@@ -5772,7 +8742,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>-</t>
+      <t>`</t>
     </r>
     <r>
       <rPr>
@@ -5791,2641 +8761,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>∨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>－</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>§</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∞</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↓</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¦</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∪</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>［</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>］</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原则：好记，归类；高频在前；高频键位舒适；高频Rime半角可见。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>■</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>◇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>©</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>™</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>№</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>©</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>™</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>©</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>●</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>®</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>™</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>○</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>‰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>‰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都有小圆圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意思或形状相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意思或形状相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和↑、↓等在同一个按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五角星放在数字5按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都有斜杠或开除之意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货币符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都有警告之意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>¬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∧</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成对变换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状相近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^是Ctrl，键盘符号一类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题的答案是✔还是❌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和苹果键盘布局一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键在？旁，同是✔❌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，号前后“属于”同一句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和-号的∨∧在同一按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-即非，∨∧同属逻辑符号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助记说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和、累积之意</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>★</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>‰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>☆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>✪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>都是小点点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大小写希腊文同一按键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Θ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Φ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Θ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Φ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>↔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>＝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>⇒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>⇔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>≌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>±</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>∮</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文  数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>～</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Δ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Θ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Φ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Ω</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t>α</t>
     </r>
     <r>
@@ -8459,7 +8794,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
         <charset val="134"/>
@@ -8497,359 +8831,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="新宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>←</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>γ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>π</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>々</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>〃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>α</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>γ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>λ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>π</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>′</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>″</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全角时</t>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>μ</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8858,7 +8844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8990,13 +8976,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -9024,12 +9003,6 @@
     <font>
       <sz val="11"/>
       <name val="MS Gothic"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="6"/>
-      <name val="Consolas"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -9125,7 +9098,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -9681,8 +9654,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10607,19 +10580,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>82</v>
@@ -10631,10 +10604,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2"/>
@@ -10647,47 +10620,47 @@
         <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>58</v>
@@ -10699,30 +10672,30 @@
         <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>85</v>
@@ -10737,40 +10710,40 @@
         <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -10781,10 +10754,10 @@
         <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
@@ -10799,39 +10772,39 @@
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G11"/>
     </row>
@@ -10846,16 +10819,16 @@
         <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10866,42 +10839,42 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -10912,16 +10885,16 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G15"/>
     </row>
@@ -10939,46 +10912,46 @@
         <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G16"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>77</v>
@@ -10993,19 +10966,19 @@
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -11016,27 +10989,27 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
@@ -11045,52 +11018,52 @@
         <v>49</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -11104,16 +11077,16 @@
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G24"/>
     </row>
@@ -11125,62 +11098,62 @@
         <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27"/>
     </row>
@@ -11192,13 +11165,13 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>78</v>
@@ -11213,86 +11186,86 @@
         <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -11303,16 +11276,16 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -11326,24 +11299,24 @@
         <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -11375,24 +11348,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/joy/标点符号漂移方案.xlsx
+++ b/joy/标点符号漂移方案.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="64800" windowWidth="15705" windowHeight="7725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="65400" windowWidth="15705" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="标点频率统计" sheetId="1" r:id="rId1"/>
@@ -1733,68 +1733,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic Semilight"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>₂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>²</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>➋</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0070C0"/>
@@ -8836,6 +8774,56 @@
         <charset val="134"/>
       </rPr>
       <t>μ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic Semilight"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>₂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>➋</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10580,19 +10568,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>82</v>
@@ -10604,10 +10592,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2"/>
@@ -10620,13 +10608,13 @@
         <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>83</v>
@@ -10637,22 +10625,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="G4" t="s">
         <v>93</v>
@@ -10660,7 +10648,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>58</v>
@@ -10672,7 +10660,7 @@
         <v>53</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>84</v>
@@ -10683,19 +10671,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>85</v>
@@ -10710,34 +10698,34 @@
         <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>86</v>
@@ -10754,10 +10742,10 @@
         <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
@@ -10772,16 +10760,16 @@
         <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="G10" t="s">
         <v>95</v>
@@ -10789,22 +10777,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="G11"/>
     </row>
@@ -10819,10 +10807,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>73</v>
@@ -10839,13 +10827,13 @@
         <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>74</v>
@@ -10856,22 +10844,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -10885,16 +10873,16 @@
         <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="G15"/>
     </row>
@@ -10912,7 +10900,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>91</v>
@@ -10921,19 +10909,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>89</v>
@@ -10942,16 +10930,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>77</v>
@@ -10966,16 +10954,16 @@
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="G19" t="s">
         <v>92</v>
@@ -10989,16 +10977,16 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="G20" t="s">
         <v>92</v>
@@ -11006,10 +10994,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>49</v>
@@ -11018,28 +11006,28 @@
         <v>49</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>90</v>
@@ -11048,22 +11036,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
         <v>55</v>
@@ -11077,16 +11065,16 @@
         <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24"/>
     </row>
@@ -11098,16 +11086,16 @@
         <v>39</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" t="s">
         <v>98</v>
@@ -11115,19 +11103,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>87</v>
@@ -11138,19 +11126,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>88</v>
@@ -11165,13 +11153,13 @@
         <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>78</v>
@@ -11186,37 +11174,37 @@
         <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="E30" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
         <v>99</v>
@@ -11224,22 +11212,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G31" t="s">
         <v>100</v>
@@ -11247,22 +11235,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" t="s">
         <v>98</v>
@@ -11276,16 +11264,16 @@
         <v>50</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E33" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
         <v>55</v>
@@ -11299,16 +11287,16 @@
         <v>65</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="G34" t="s">
         <v>96</v>
@@ -11316,7 +11304,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -11338,7 +11326,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11365,7 +11355,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
